--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H2">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J2">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="N2">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="O2">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="P2">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="Q2">
-        <v>0.1544536730951111</v>
+        <v>0.02701262644155555</v>
       </c>
       <c r="R2">
-        <v>1.390083057856</v>
+        <v>0.243113637974</v>
       </c>
       <c r="S2">
-        <v>0.0004806711038105308</v>
+        <v>7.15658131253093E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004806711038105307</v>
+        <v>7.156581312530931E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H3">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J3">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>16.17191166666667</v>
       </c>
       <c r="N3">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="O3">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="P3">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="Q3">
-        <v>14.90174816181778</v>
+        <v>2.578163892360556</v>
       </c>
       <c r="R3">
-        <v>134.11573345636</v>
+        <v>23.203475031245</v>
       </c>
       <c r="S3">
-        <v>0.04637532791620105</v>
+        <v>0.00683045003884748</v>
       </c>
       <c r="T3">
-        <v>0.04637532791620105</v>
+        <v>0.00683045003884748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.9214586666666666</v>
+        <v>0.1594223333333333</v>
       </c>
       <c r="H4">
-        <v>2.764376</v>
+        <v>0.478267</v>
       </c>
       <c r="I4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="J4">
-        <v>0.08041853843186561</v>
+        <v>0.01552338951653915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="N4">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="O4">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="P4">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="Q4">
-        <v>10.78462476621778</v>
+        <v>3.254150774563556</v>
       </c>
       <c r="R4">
-        <v>97.06162289596</v>
+        <v>29.287356971072</v>
       </c>
       <c r="S4">
-        <v>0.03356253941185403</v>
+        <v>0.008621373664566358</v>
       </c>
       <c r="T4">
-        <v>0.03356253941185403</v>
+        <v>0.00862137366456636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.739441</v>
       </c>
       <c r="I5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J5">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="N5">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="O5">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="P5">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="Q5">
-        <v>0.3206791492773334</v>
+        <v>0.3241649031113333</v>
       </c>
       <c r="R5">
-        <v>2.886112343496001</v>
+        <v>2.917484128002</v>
       </c>
       <c r="S5">
-        <v>0.0009979769180189007</v>
+        <v>0.0008588252211625272</v>
       </c>
       <c r="T5">
-        <v>0.0009979769180189005</v>
+        <v>0.0008588252211625272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.739441</v>
       </c>
       <c r="I6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J6">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>16.17191166666667</v>
       </c>
       <c r="N6">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="O6">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="P6">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="Q6">
-        <v>30.93924428934833</v>
+        <v>30.93924428934834</v>
       </c>
       <c r="R6">
         <v>278.453198604135</v>
       </c>
       <c r="S6">
-        <v>0.0962851863967452</v>
+        <v>0.08196878522125262</v>
       </c>
       <c r="T6">
-        <v>0.09628518639674519</v>
+        <v>0.0819687852212526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.739441</v>
       </c>
       <c r="I7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="J7">
-        <v>0.1669662363715809</v>
+        <v>0.1862883666449807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="N7">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="O7">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="P7">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="Q7">
-        <v>22.39120783599833</v>
+        <v>39.05142185371734</v>
       </c>
       <c r="R7">
-        <v>201.520870523985</v>
+        <v>351.462796683456</v>
       </c>
       <c r="S7">
-        <v>0.06968307305681677</v>
+        <v>0.1034607562025655</v>
       </c>
       <c r="T7">
-        <v>0.06968307305681677</v>
+        <v>0.1034607562025655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H8">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J8">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="N8">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="O8">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="P8">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="Q8">
-        <v>1.445489910978667</v>
+        <v>1.388946714110222</v>
       </c>
       <c r="R8">
-        <v>13.009409198808</v>
+        <v>12.500520426992</v>
       </c>
       <c r="S8">
-        <v>0.004498470105202659</v>
+        <v>0.00367980141427893</v>
       </c>
       <c r="T8">
-        <v>0.004498470105202658</v>
+        <v>0.00367980141427893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H9">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J9">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>16.17191166666667</v>
       </c>
       <c r="N9">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="O9">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="P9">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="Q9">
-        <v>139.4614073735117</v>
+        <v>132.5651274406623</v>
       </c>
       <c r="R9">
-        <v>1255.152666361605</v>
+        <v>1193.08614696596</v>
       </c>
       <c r="S9">
-        <v>0.4340140786416674</v>
+        <v>0.3512109849028408</v>
       </c>
       <c r="T9">
-        <v>0.4340140786416673</v>
+        <v>0.3512109849028408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.623680999999999</v>
+        <v>8.197245333333333</v>
       </c>
       <c r="H10">
-        <v>25.871043</v>
+        <v>24.591736</v>
       </c>
       <c r="I10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="J10">
-        <v>0.7526152251965536</v>
+        <v>0.7981882438384801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="N10">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="O10">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="P10">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="Q10">
-        <v>100.9303694814617</v>
+        <v>167.3233084286862</v>
       </c>
       <c r="R10">
-        <v>908.373325333155</v>
+        <v>1505.909775858176</v>
       </c>
       <c r="S10">
-        <v>0.3141026764496835</v>
+        <v>0.4432974575213603</v>
       </c>
       <c r="T10">
-        <v>0.3141026764496835</v>
+        <v>0.4432974575213603</v>
       </c>
     </row>
   </sheetData>
